--- a/app/results.xlsx
+++ b/app/results.xlsx
@@ -124,7 +124,7 @@
     <t>Number of new diagnosis through mass tests</t>
   </si>
   <si>
-    <t>Number of diagnosis per day</t>
+    <t>Newly diagnosed</t>
   </si>
   <si>
     <t>Number of hospitalized per day</t>
@@ -142,7 +142,7 @@
     <t>Number of new infections</t>
   </si>
   <si>
-    <t>Number of quarantined (only true positives)</t>
+    <t>Number of quarantines (only true positives)</t>
   </si>
   <si>
     <t>Number of travel-related infection</t>

--- a/app/results.xlsx
+++ b/app/results.xlsx
@@ -142,7 +142,7 @@
     <t>Number of new infections</t>
   </si>
   <si>
-    <t>Number of quarantines (only true positives)</t>
+    <t>Number to quarantine (only true positives)</t>
   </si>
   <si>
     <t>Number of travel-related infection</t>
